--- a/Content/sampleExcel.xlsx
+++ b/Content/sampleExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\OneDrive\Venture Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{91950F8C-4CA8-4B4C-AA95-D5F04FB747C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ADE7AFAC-265B-440C-BAF1-566971330A00}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{91950F8C-4CA8-4B4C-AA95-D5F04FB747C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9CEF6F37-0539-4494-A298-8EA8CE738191}"/>
   <bookViews>
-    <workbookView xWindow="7815" yWindow="1943" windowWidth="10268" windowHeight="9465" xr2:uid="{FFE1BEEC-108B-44F3-AF2B-7D255C43225C}"/>
+    <workbookView xWindow="4305" yWindow="1927" windowWidth="13778" windowHeight="9466" xr2:uid="{FFE1BEEC-108B-44F3-AF2B-7D255C43225C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>orderId</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Venture Order List</t>
+  </si>
+  <si>
+    <t>test excel 2</t>
+  </si>
+  <si>
+    <t>1/12/2019  12:12PM</t>
   </si>
 </sst>
 </file>
@@ -422,15 +428,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842C943A-3D35-41B8-B784-28D36878AB63}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.59765625" customWidth="1"/>
+    <col min="5" max="5" width="19.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -473,11 +480,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
-        <v>43800</v>
-      </c>
-      <c r="E3" s="1">
-        <v>43833</v>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F3">
         <v>999</v>
@@ -490,11 +497,11 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <v>43800</v>
-      </c>
-      <c r="E4" s="1">
-        <v>43833</v>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F4">
         <v>999</v>
@@ -510,13 +517,33 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
-        <v>43800</v>
-      </c>
-      <c r="E5" s="1">
-        <v>43833</v>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F5">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
         <v>999</v>
       </c>
     </row>

--- a/Content/sampleExcel.xlsx
+++ b/Content/sampleExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\OneDrive\Venture Scheduler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\source\repos\VentureScheduler\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{91950F8C-4CA8-4B4C-AA95-D5F04FB747C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9CEF6F37-0539-4494-A298-8EA8CE738191}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26D64AC-35D5-4AD2-986D-49065CE63DCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="1927" windowWidth="13778" windowHeight="9466" xr2:uid="{FFE1BEEC-108B-44F3-AF2B-7D255C43225C}"/>
+    <workbookView xWindow="1485" yWindow="1657" windowWidth="18840" windowHeight="9466" xr2:uid="{FFE1BEEC-108B-44F3-AF2B-7D255C43225C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,10 +57,10 @@
     <t>Venture Order List</t>
   </si>
   <si>
-    <t>test excel 2</t>
-  </si>
-  <si>
     <t>1/12/2019  12:12PM</t>
+  </si>
+  <si>
+    <t>test review</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -481,10 +481,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>999</v>
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>999</v>
@@ -518,10 +518,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>999</v>
@@ -529,22 +529,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>20</v>
+        <v>9874</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>999</v>
+        <v>1234</v>
       </c>
     </row>
   </sheetData>

--- a/Content/sampleExcel.xlsx
+++ b/Content/sampleExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\source\repos\VentureScheduler\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26D64AC-35D5-4AD2-986D-49065CE63DCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9FE745-FEA3-4950-BB59-B50EBCF4C649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="1657" windowWidth="18840" windowHeight="9466" xr2:uid="{FFE1BEEC-108B-44F3-AF2B-7D255C43225C}"/>
   </bookViews>
@@ -529,7 +529,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>9874</v>
+        <v>9873</v>
       </c>
       <c r="B6">
         <v>5</v>

--- a/Content/sampleExcel.xlsx
+++ b/Content/sampleExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\source\repos\VentureScheduler\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9FE745-FEA3-4950-BB59-B50EBCF4C649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0DDC36-BD26-4BF5-8152-DED7FB8466FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1657" windowWidth="18840" windowHeight="9466" xr2:uid="{FFE1BEEC-108B-44F3-AF2B-7D255C43225C}"/>
+    <workbookView xWindow="525" yWindow="3225" windowWidth="19260" windowHeight="9855" xr2:uid="{FFE1BEEC-108B-44F3-AF2B-7D255C43225C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,36 +31,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>orderId</t>
   </si>
   <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>lastMaterialDate</t>
+  </si>
+  <si>
+    <t>shipDate</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Venture Order List</t>
+  </si>
+  <si>
+    <t>Test order 1</t>
+  </si>
+  <si>
+    <t>Test order 2</t>
+  </si>
+  <si>
+    <t>Test order 3</t>
+  </si>
+  <si>
+    <t>Test order 4</t>
+  </si>
+  <si>
+    <t>1/1/2020  12:00PM</t>
+  </si>
+  <si>
+    <t>12/3/2020  12:00PM</t>
+  </si>
+  <si>
+    <t>15/4/2020  12:00PM</t>
+  </si>
+  <si>
+    <t>30/03/2020  12:00PM</t>
+  </si>
+  <si>
+    <t>16/12/2020  12:12PM</t>
+  </si>
+  <si>
+    <t>30/4/2020  12:12PM</t>
+  </si>
+  <si>
     <t>partId</t>
   </si>
   <si>
-    <t>projectName</t>
-  </si>
-  <si>
-    <t>lastMaterialDate</t>
-  </si>
-  <si>
-    <t>shipDate</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>test excel inport</t>
-  </si>
-  <si>
-    <t>Venture Order List</t>
-  </si>
-  <si>
-    <t>1/12/2019  12:12PM</t>
-  </si>
-  <si>
-    <t>test review</t>
+    <t>30/3/2020  12:00PM</t>
   </si>
 </sst>
 </file>
@@ -431,7 +455,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -442,7 +466,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -455,36 +479,36 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3003</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>999</v>
@@ -494,14 +518,17 @@
       <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" s="2">
+        <v>3007</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>999</v>
@@ -509,19 +536,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3008</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>999</v>
@@ -529,22 +556,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>9873</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3008</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>1234</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>

--- a/Content/sampleExcel.xlsx
+++ b/Content/sampleExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\source\repos\VentureScheduler\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0DDC36-BD26-4BF5-8152-DED7FB8466FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E73EFD-337B-4E23-AD7A-69DC16E48684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="3225" windowWidth="19260" windowHeight="9855" xr2:uid="{FFE1BEEC-108B-44F3-AF2B-7D255C43225C}"/>
+    <workbookView xWindow="1013" yWindow="1283" windowWidth="19260" windowHeight="9855" xr2:uid="{FFE1BEEC-108B-44F3-AF2B-7D255C43225C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,18 +51,6 @@
     <t>Venture Order List</t>
   </si>
   <si>
-    <t>Test order 1</t>
-  </si>
-  <si>
-    <t>Test order 2</t>
-  </si>
-  <si>
-    <t>Test order 3</t>
-  </si>
-  <si>
-    <t>Test order 4</t>
-  </si>
-  <si>
     <t>1/1/2020  12:00PM</t>
   </si>
   <si>
@@ -85,6 +73,18 @@
   </si>
   <si>
     <t>30/3/2020  12:00PM</t>
+  </si>
+  <si>
+    <t>Work order 1</t>
+  </si>
+  <si>
+    <t>Work order 2</t>
+  </si>
+  <si>
+    <t>Work order 3</t>
+  </si>
+  <si>
+    <t>Work order 4</t>
   </si>
 </sst>
 </file>
@@ -128,10 +128,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,31 +456,32 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD54"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="3" max="3" width="24.1328125" customWidth="1"/>
     <col min="4" max="4" width="28.59765625" customWidth="1"/>
     <col min="5" max="5" width="19.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -498,17 +500,17 @@
       <c r="A3">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
-        <v>3003</v>
+      <c r="B3" s="3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>999</v>
@@ -518,17 +520,17 @@
       <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" s="2">
-        <v>3007</v>
+      <c r="B4" s="3">
+        <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>999</v>
@@ -538,17 +540,17 @@
       <c r="A5">
         <v>13</v>
       </c>
-      <c r="B5" s="2">
-        <v>3008</v>
+      <c r="B5" s="3">
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>999</v>
@@ -558,17 +560,17 @@
       <c r="A6">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
-        <v>3008</v>
+      <c r="B6" s="3">
+        <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F6">
         <v>999</v>

--- a/Content/sampleExcel.xlsx
+++ b/Content/sampleExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\source\repos\VentureScheduler\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E73EFD-337B-4E23-AD7A-69DC16E48684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C41BE8-9C1B-41D9-B4B6-E60EA91DA9E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1013" yWindow="1283" windowWidth="19260" windowHeight="9855" xr2:uid="{FFE1BEEC-108B-44F3-AF2B-7D255C43225C}"/>
   </bookViews>

--- a/Content/sampleExcel.xlsx
+++ b/Content/sampleExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\source\repos\VentureScheduler\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C41BE8-9C1B-41D9-B4B6-E60EA91DA9E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D700D4-311C-4C9A-A036-22FBADE9A2AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1013" yWindow="1283" windowWidth="19260" windowHeight="9855" xr2:uid="{FFE1BEEC-108B-44F3-AF2B-7D255C43225C}"/>
   </bookViews>

--- a/Content/sampleExcel.xlsx
+++ b/Content/sampleExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\source\repos\VentureScheduler\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D700D4-311C-4C9A-A036-22FBADE9A2AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9992ACE-55C7-4169-BBFD-95F780938ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1013" yWindow="1283" windowWidth="19260" windowHeight="9855" xr2:uid="{FFE1BEEC-108B-44F3-AF2B-7D255C43225C}"/>
+    <workbookView xWindow="1020" yWindow="1290" windowWidth="19260" windowHeight="9855" xr2:uid="{FFE1BEEC-108B-44F3-AF2B-7D255C43225C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>orderId</t>
   </si>
@@ -75,16 +75,37 @@
     <t>30/3/2020  12:00PM</t>
   </si>
   <si>
-    <t>Work order 1</t>
-  </si>
-  <si>
-    <t>Work order 2</t>
-  </si>
-  <si>
-    <t>Work order 3</t>
-  </si>
-  <si>
-    <t>Work order 4</t>
+    <t>6/2/2020  12:00PM</t>
+  </si>
+  <si>
+    <t>06/06/2020 12:00PM</t>
+  </si>
+  <si>
+    <t>10/07/2020 12:00PM</t>
+  </si>
+  <si>
+    <t>08/08/2020 12:00PM</t>
+  </si>
+  <si>
+    <t>Work order 21</t>
+  </si>
+  <si>
+    <t>Work order 22</t>
+  </si>
+  <si>
+    <t>Work order 23</t>
+  </si>
+  <si>
+    <t>Work order 24</t>
+  </si>
+  <si>
+    <t>work order 25</t>
+  </si>
+  <si>
+    <t>work order 26</t>
+  </si>
+  <si>
+    <t>work order 27</t>
   </si>
 </sst>
 </file>
@@ -453,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842C943A-3D35-41B8-B784-28D36878AB63}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -498,13 +519,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -518,13 +539,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -538,13 +559,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -558,13 +579,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -574,6 +595,66 @@
       </c>
       <c r="F6">
         <v>999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>9520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>7800</v>
       </c>
     </row>
   </sheetData>

--- a/Content/sampleExcel.xlsx
+++ b/Content/sampleExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\source\repos\VentureScheduler\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9992ACE-55C7-4169-BBFD-95F780938ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F485C2-C91A-4ABE-9C8A-6E150B5B571F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1290" windowWidth="19260" windowHeight="9855" xr2:uid="{FFE1BEEC-108B-44F3-AF2B-7D255C43225C}"/>
+    <workbookView xWindow="7935" yWindow="1425" windowWidth="10770" windowHeight="9450" xr2:uid="{FFE1BEEC-108B-44F3-AF2B-7D255C43225C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>orderId</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>work order 27</t>
+  </si>
+  <si>
+    <t>work order 28</t>
+  </si>
+  <si>
+    <t>7/2/2020 12:00PM</t>
+  </si>
+  <si>
+    <t>05/05/2020 12:00PM</t>
   </si>
 </sst>
 </file>
@@ -474,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842C943A-3D35-41B8-B784-28D36878AB63}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -657,6 +666,26 @@
         <v>7800</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>

--- a/Content/sampleExcel.xlsx
+++ b/Content/sampleExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\source\repos\VentureScheduler\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F485C2-C91A-4ABE-9C8A-6E150B5B571F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E64F101-0074-47D9-8EC1-AAE2BFED223F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7935" yWindow="1425" windowWidth="10770" windowHeight="9450" xr2:uid="{FFE1BEEC-108B-44F3-AF2B-7D255C43225C}"/>
+    <workbookView xWindow="375" yWindow="435" windowWidth="18330" windowHeight="10440" xr2:uid="{FFE1BEEC-108B-44F3-AF2B-7D255C43225C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>orderId</t>
   </si>
@@ -115,13 +115,46 @@
   </si>
   <si>
     <t>05/05/2020 12:00PM</t>
+  </si>
+  <si>
+    <t>work order 29</t>
+  </si>
+  <si>
+    <t>work order 30</t>
+  </si>
+  <si>
+    <t>work order 31</t>
+  </si>
+  <si>
+    <t>work order 32</t>
+  </si>
+  <si>
+    <t>work order 33</t>
+  </si>
+  <si>
+    <t>work order 34</t>
+  </si>
+  <si>
+    <t>work order 35</t>
+  </si>
+  <si>
+    <t>work order 36</t>
+  </si>
+  <si>
+    <t>18/03/2020 12:00PM</t>
+  </si>
+  <si>
+    <t>10/06/2020 12:00PM</t>
+  </si>
+  <si>
+    <t>30/03/2020 12:00PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +166,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -483,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842C943A-3D35-41B8-B784-28D36878AB63}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -683,13 +722,174 @@
         <v>27</v>
       </c>
       <c r="F10">
-        <v>500</v>
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>9583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>5652</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Content/sampleExcel.xlsx
+++ b/Content/sampleExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\source\repos\VentureScheduler\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\OneDrive\Venture Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E64F101-0074-47D9-8EC1-AAE2BFED223F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="8_{91950F8C-4CA8-4B4C-AA95-D5F04FB747C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{17F73048-55C6-47B8-9C4C-6D3D007B4D80}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="435" windowWidth="18330" windowHeight="10440" xr2:uid="{FFE1BEEC-108B-44F3-AF2B-7D255C43225C}"/>
+    <workbookView xWindow="2003" yWindow="1477" windowWidth="18330" windowHeight="10441" xr2:uid="{FFE1BEEC-108B-44F3-AF2B-7D255C43225C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>orderId</t>
   </si>
@@ -63,18 +63,12 @@
     <t>30/03/2020  12:00PM</t>
   </si>
   <si>
-    <t>16/12/2020  12:12PM</t>
-  </si>
-  <si>
     <t>30/4/2020  12:12PM</t>
   </si>
   <si>
     <t>partId</t>
   </si>
   <si>
-    <t>30/3/2020  12:00PM</t>
-  </si>
-  <si>
     <t>6/2/2020  12:00PM</t>
   </si>
   <si>
@@ -141,13 +135,34 @@
     <t>work order 36</t>
   </si>
   <si>
-    <t>18/03/2020 12:00PM</t>
-  </si>
-  <si>
     <t>10/06/2020 12:00PM</t>
   </si>
   <si>
-    <t>30/03/2020 12:00PM</t>
+    <t>15/03/2020 12:00PM</t>
+  </si>
+  <si>
+    <t>03/03/2020 12:00PM</t>
+  </si>
+  <si>
+    <t>10/03/2020 12:00PM</t>
+  </si>
+  <si>
+    <t>12/03/2020  12:00PM</t>
+  </si>
+  <si>
+    <t>08/03/2020 12:00PM</t>
+  </si>
+  <si>
+    <t>05/03/2020 12:00PM</t>
+  </si>
+  <si>
+    <t>02/04/2020 12:00PM</t>
+  </si>
+  <si>
+    <t>10/3/2020  12:12PM</t>
+  </si>
+  <si>
+    <t>12/03/2020 12:00PM</t>
   </si>
 </sst>
 </file>
@@ -525,7 +540,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -550,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -573,16 +588,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>999</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -590,10 +605,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -602,7 +617,7 @@
         <v>13</v>
       </c>
       <c r="F4">
-        <v>999</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -610,19 +625,19 @@
         <v>23</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F5">
-        <v>999</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -630,19 +645,19 @@
         <v>24</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>999</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -653,16 +668,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>9520</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -673,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F8">
-        <v>5460</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -693,16 +708,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F9">
-        <v>7800</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -713,16 +728,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>2652</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -733,16 +748,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>4533</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -750,19 +765,19 @@
         <v>30</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>9583</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -770,19 +785,19 @@
         <v>31</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>2346</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -793,16 +808,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>3582</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -810,19 +825,19 @@
         <v>33</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F15">
-        <v>2357</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -830,19 +845,19 @@
         <v>34</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>3572</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -850,19 +865,19 @@
         <v>35</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F17">
-        <v>2892</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -870,19 +885,19 @@
         <v>36</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F18">
-        <v>5652</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
